--- a/cplex-cpp/cplex int.xlsx
+++ b/cplex-cpp/cplex int.xlsx
@@ -12,14 +12,14 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="26083" windowHeight="11045"/>
   </bookViews>
   <sheets>
-    <sheet name="cplex int" sheetId="1" r:id="rId1"/>
+    <sheet name="results-1606079248" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>graph</t>
   </si>
@@ -34,6 +34,15 @@
   </si>
   <si>
     <t>heuristic_time (ms)</t>
+  </si>
+  <si>
+    <t>cplex time (sec)</t>
+  </si>
+  <si>
+    <t>cplex time (ms)</t>
+  </si>
+  <si>
+    <t>result</t>
   </si>
   <si>
     <t>hamming6-2.clq</t>
@@ -921,7 +930,7 @@
   <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -942,10 +951,19 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B2">
         <v>32</v>
@@ -957,18 +975,21 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>61</v>
+        <v>29</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="H2">
-        <v>52</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B3">
         <v>16</v>
@@ -980,18 +1001,21 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>42</v>
+        <v>12</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="H3">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B4">
         <v>12</v>
@@ -1000,21 +1024,24 @@
         <v>12</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>1461</v>
+        <v>73</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
       </c>
       <c r="G4">
-        <v>2</v>
+        <v>2222</v>
       </c>
       <c r="H4">
-        <v>2107</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>24</v>
@@ -1023,21 +1050,24 @@
         <v>24</v>
       </c>
       <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>82</v>
+      </c>
+      <c r="F5">
         <v>1</v>
       </c>
-      <c r="E5">
-        <v>1541</v>
-      </c>
       <c r="G5">
-        <v>1</v>
+        <v>1125</v>
       </c>
       <c r="H5">
-        <v>1239</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B6">
         <v>55</v>
@@ -1049,18 +1079,21 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>408</v>
+        <v>361</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="H6">
-        <v>552</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B7">
         <v>4</v>
@@ -1072,18 +1105,21 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>102</v>
+        <v>6</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="H7">
-        <v>103</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B8">
         <v>30</v>
@@ -1095,18 +1131,21 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>221</v>
+        <v>128</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>116</v>
       </c>
       <c r="H8">
-        <v>246</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B9">
         <v>70</v>
@@ -1118,18 +1157,21 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>557</v>
+        <v>506</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="H9">
-        <v>532</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B10">
         <v>60</v>
@@ -1141,18 +1183,21 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>387</v>
+        <v>366</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="H10">
-        <v>389</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B11">
         <v>126</v>
@@ -1161,21 +1206,24 @@
         <v>126</v>
       </c>
       <c r="D11">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E11">
-        <v>6285</v>
+        <v>1915</v>
+      </c>
+      <c r="F11">
+        <v>4</v>
       </c>
       <c r="G11">
-        <v>6</v>
+        <v>4429</v>
       </c>
       <c r="H11">
-        <v>6337</v>
+        <v>126</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B12">
         <v>64</v>
@@ -1184,21 +1232,24 @@
         <v>64</v>
       </c>
       <c r="D12">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="E12">
-        <v>11314</v>
+        <v>744</v>
+      </c>
+      <c r="F12">
+        <v>7</v>
       </c>
       <c r="G12">
-        <v>8</v>
+        <v>7155</v>
       </c>
       <c r="H12">
-        <v>8305</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B13">
         <v>58</v>
@@ -1207,21 +1258,24 @@
         <v>58</v>
       </c>
       <c r="D13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E13">
-        <v>2254</v>
+        <v>211</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>2</v>
+        <v>1926</v>
       </c>
       <c r="H13">
-        <v>2153</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B14">
         <v>14</v>
@@ -1230,21 +1284,24 @@
         <v>14</v>
       </c>
       <c r="D14">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E14">
-        <v>9576</v>
+        <v>407</v>
+      </c>
+      <c r="F14">
+        <v>12</v>
       </c>
       <c r="G14">
+        <v>12560</v>
+      </c>
+      <c r="H14">
         <v>14</v>
-      </c>
-      <c r="H14">
-        <v>14187</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B15">
         <v>26</v>
@@ -1253,21 +1310,24 @@
         <v>26</v>
       </c>
       <c r="D15">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="E15">
-        <v>11182</v>
+        <v>466</v>
+      </c>
+      <c r="F15">
+        <v>14</v>
       </c>
       <c r="G15">
-        <v>15</v>
+        <v>14702</v>
       </c>
       <c r="H15">
-        <v>15547</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B16">
         <v>18</v>
@@ -1279,18 +1339,21 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>571</v>
+        <v>122</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>317</v>
       </c>
       <c r="H16">
-        <v>487</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B17">
         <v>34</v>
@@ -1302,18 +1365,21 @@
         <v>0</v>
       </c>
       <c r="E17">
-        <v>612</v>
+        <v>118</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>470</v>
       </c>
       <c r="H17">
-        <v>590</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B18">
         <v>11</v>
@@ -1325,18 +1391,21 @@
         <v>0</v>
       </c>
       <c r="E18">
-        <v>546</v>
+        <v>61</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>2</v>
+        <v>1951</v>
       </c>
       <c r="H18">
-        <v>2677</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B19">
         <v>12</v>
@@ -1345,21 +1414,24 @@
         <v>9</v>
       </c>
       <c r="D19">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E19">
-        <v>3208</v>
+        <v>76</v>
+      </c>
+      <c r="F19">
+        <v>15</v>
       </c>
       <c r="G19">
-        <v>17</v>
+        <v>15854</v>
       </c>
       <c r="H19">
-        <v>17685</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B20">
         <v>8</v>
@@ -1368,21 +1440,24 @@
         <v>8</v>
       </c>
       <c r="D20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E20">
-        <v>2746</v>
+        <v>161</v>
+      </c>
+      <c r="F20">
+        <v>25</v>
       </c>
       <c r="G20">
-        <v>30</v>
+        <v>25443</v>
       </c>
       <c r="H20">
-        <v>30673</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B21">
         <v>15</v>
@@ -1391,21 +1466,24 @@
         <v>12</v>
       </c>
       <c r="D21">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E21">
-        <v>20848</v>
+        <v>92</v>
+      </c>
+      <c r="F21">
+        <v>28</v>
       </c>
       <c r="G21">
-        <v>28</v>
+        <v>28362</v>
       </c>
       <c r="H21">
-        <v>28515</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B22">
         <v>44</v>
@@ -1414,21 +1492,24 @@
         <v>38</v>
       </c>
       <c r="D22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E22">
-        <v>1091</v>
+        <v>374</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>771</v>
       </c>
       <c r="H22">
-        <v>901</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B23">
         <v>17</v>
@@ -1437,21 +1518,24 @@
         <v>15</v>
       </c>
       <c r="D23">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="E23">
-        <v>27152</v>
+        <v>111</v>
+      </c>
+      <c r="F23">
+        <v>35</v>
       </c>
       <c r="G23">
-        <v>32</v>
+        <v>35972</v>
       </c>
       <c r="H23">
-        <v>32807</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B24">
         <v>44</v>
@@ -1463,18 +1547,21 @@
         <v>0</v>
       </c>
       <c r="E24">
-        <v>737</v>
+        <v>327</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>136</v>
       </c>
       <c r="H24">
-        <v>477</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B25">
         <v>21</v>
@@ -1483,21 +1570,24 @@
         <v>20</v>
       </c>
       <c r="D25">
-        <v>69</v>
+        <v>0</v>
       </c>
       <c r="E25">
-        <v>69817</v>
+        <v>145</v>
+      </c>
+      <c r="F25">
+        <v>164</v>
       </c>
       <c r="G25">
-        <v>143</v>
+        <v>164488</v>
       </c>
       <c r="H25">
-        <v>143907</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B26">
         <v>25</v>
@@ -1506,21 +1596,24 @@
         <v>25</v>
       </c>
       <c r="D26">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E26">
-        <v>10710</v>
+        <v>316</v>
+      </c>
+      <c r="F26">
+        <v>48</v>
       </c>
       <c r="G26">
-        <v>33</v>
+        <v>48240</v>
       </c>
       <c r="H26">
-        <v>33748</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B27">
         <v>18</v>
@@ -1529,16 +1622,19 @@
         <v>18</v>
       </c>
       <c r="D27">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="E27">
-        <v>51980</v>
+        <v>138</v>
+      </c>
+      <c r="F27">
+        <v>64</v>
       </c>
       <c r="G27">
-        <v>52</v>
+        <v>64770</v>
       </c>
       <c r="H27">
-        <v>52677</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/cplex-cpp/cplex int.xlsx
+++ b/cplex-cpp/cplex int.xlsx
@@ -15,11 +15,12 @@
     <sheet name="results-1606079248" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>graph</t>
   </si>
@@ -121,6 +122,12 @@
   </si>
   <si>
     <t>sanr200_0.7.clq</t>
+  </si>
+  <si>
+    <t>Без улучшений</t>
+  </si>
+  <si>
+    <t>c улучшениями</t>
   </si>
 </sst>
 </file>
@@ -604,8 +611,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% — акцент1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -927,15 +937,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:R29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="A10" sqref="A10:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -961,7 +971,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -986,8 +996,32 @@
       <c r="H2">
         <v>32</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>30</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>13</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>34</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -1012,8 +1046,32 @@
       <c r="H3">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>10</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>22</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>12</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -1038,8 +1096,32 @@
       <c r="H4">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>63</v>
+      </c>
+      <c r="L4">
+        <v>7</v>
+      </c>
+      <c r="M4">
+        <v>7573</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>74</v>
+      </c>
+      <c r="Q4">
+        <v>3</v>
+      </c>
+      <c r="R4">
+        <v>3240</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -1064,8 +1146,32 @@
       <c r="H5">
         <v>24</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>67</v>
+      </c>
+      <c r="L5">
+        <v>4</v>
+      </c>
+      <c r="M5">
+        <v>4141</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>82</v>
+      </c>
+      <c r="Q5">
+        <v>3</v>
+      </c>
+      <c r="R5">
+        <v>3782</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -1090,8 +1196,32 @@
       <c r="H6">
         <v>55</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>353</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>88</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>431</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -1116,8 +1246,32 @@
       <c r="H7">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>4</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>74</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>6</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -1142,8 +1296,32 @@
       <c r="H8">
         <v>30</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>104</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>135</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>184</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -1168,8 +1346,32 @@
       <c r="H9">
         <v>70</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>494</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>34</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>553</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -1194,8 +1396,32 @@
       <c r="H10">
         <v>60</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>330</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>60</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>373</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -1220,8 +1446,32 @@
       <c r="H11">
         <v>126</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>1735</v>
+      </c>
+      <c r="L11">
+        <v>4</v>
+      </c>
+      <c r="M11">
+        <v>4308</v>
+      </c>
+      <c r="O11">
+        <v>2</v>
+      </c>
+      <c r="P11">
+        <v>2099</v>
+      </c>
+      <c r="Q11">
+        <v>4</v>
+      </c>
+      <c r="R11">
+        <v>4617</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -1246,8 +1496,32 @@
       <c r="H12">
         <v>64</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>575</v>
+      </c>
+      <c r="L12">
+        <v>4</v>
+      </c>
+      <c r="M12">
+        <v>4982</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>730</v>
+      </c>
+      <c r="Q12">
+        <v>5</v>
+      </c>
+      <c r="R12">
+        <v>5462</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -1272,8 +1546,32 @@
       <c r="H13">
         <v>58</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>180</v>
+      </c>
+      <c r="L13">
+        <v>2</v>
+      </c>
+      <c r="M13">
+        <v>2025</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>221</v>
+      </c>
+      <c r="Q13">
+        <v>2</v>
+      </c>
+      <c r="R13">
+        <v>2128</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -1298,8 +1596,32 @@
       <c r="H14">
         <v>14</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>374</v>
+      </c>
+      <c r="L14">
+        <v>12</v>
+      </c>
+      <c r="M14">
+        <v>12902</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>426</v>
+      </c>
+      <c r="Q14">
+        <v>13</v>
+      </c>
+      <c r="R14">
+        <v>13339</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -1324,8 +1646,32 @@
       <c r="H15">
         <v>26</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>370</v>
+      </c>
+      <c r="L15">
+        <v>16</v>
+      </c>
+      <c r="M15">
+        <v>16935</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>448</v>
+      </c>
+      <c r="Q15">
+        <v>21</v>
+      </c>
+      <c r="R15">
+        <v>21346</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -1350,8 +1696,32 @@
       <c r="H16">
         <v>18</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>108</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>539</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>126</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>23</v>
       </c>
@@ -1376,8 +1746,32 @@
       <c r="H17">
         <v>34</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>123</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>369</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>134</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>24</v>
       </c>
@@ -1402,8 +1796,32 @@
       <c r="H18">
         <v>11</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>52</v>
+      </c>
+      <c r="L18">
+        <v>2</v>
+      </c>
+      <c r="M18">
+        <v>2645</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>67</v>
+      </c>
+      <c r="Q18">
+        <v>2</v>
+      </c>
+      <c r="R18">
+        <v>2249</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>25</v>
       </c>
@@ -1428,8 +1846,32 @@
       <c r="H19">
         <v>12</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>61</v>
+      </c>
+      <c r="L19">
+        <v>9</v>
+      </c>
+      <c r="M19">
+        <v>9286</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>80</v>
+      </c>
+      <c r="Q19">
+        <v>20</v>
+      </c>
+      <c r="R19">
+        <v>20059</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>26</v>
       </c>
@@ -1454,8 +1896,32 @@
       <c r="H20">
         <v>8</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>121</v>
+      </c>
+      <c r="L20">
+        <v>61</v>
+      </c>
+      <c r="M20">
+        <v>61614</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>168</v>
+      </c>
+      <c r="Q20">
+        <v>27</v>
+      </c>
+      <c r="R20">
+        <v>27355</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>27</v>
       </c>
@@ -1480,8 +1946,32 @@
       <c r="H21">
         <v>15</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>72</v>
+      </c>
+      <c r="L21">
+        <v>30</v>
+      </c>
+      <c r="M21">
+        <v>30475</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>96</v>
+      </c>
+      <c r="Q21">
+        <v>41</v>
+      </c>
+      <c r="R21">
+        <v>41314</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>28</v>
       </c>
@@ -1506,8 +1996,32 @@
       <c r="H22">
         <v>44</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>354</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>329</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>364</v>
+      </c>
+      <c r="Q22">
+        <v>1</v>
+      </c>
+      <c r="R22">
+        <v>1442</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>29</v>
       </c>
@@ -1532,8 +2046,32 @@
       <c r="H23">
         <v>17</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>76</v>
+      </c>
+      <c r="L23">
+        <v>38</v>
+      </c>
+      <c r="M23">
+        <v>38403</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>112</v>
+      </c>
+      <c r="Q23">
+        <v>34</v>
+      </c>
+      <c r="R23">
+        <v>34832</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>30</v>
       </c>
@@ -1558,8 +2096,32 @@
       <c r="H24">
         <v>44</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>305</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>181</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>336</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -1584,8 +2146,32 @@
       <c r="H25">
         <v>21</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>120</v>
+      </c>
+      <c r="L25">
+        <v>87</v>
+      </c>
+      <c r="M25">
+        <v>87799</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>152</v>
+      </c>
+      <c r="Q25">
+        <v>161</v>
+      </c>
+      <c r="R25">
+        <v>161561</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>32</v>
       </c>
@@ -1610,8 +2196,32 @@
       <c r="H26">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>235</v>
+      </c>
+      <c r="L26">
+        <v>68</v>
+      </c>
+      <c r="M26">
+        <v>68813</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26">
+        <v>295</v>
+      </c>
+      <c r="Q26">
+        <v>38</v>
+      </c>
+      <c r="R26">
+        <v>38834</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>33</v>
       </c>
@@ -1636,8 +2246,50 @@
       <c r="H27">
         <v>18</v>
       </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>99</v>
+      </c>
+      <c r="L27">
+        <v>54</v>
+      </c>
+      <c r="M27">
+        <v>54906</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27">
+        <v>153</v>
+      </c>
+      <c r="Q27">
+        <v>62</v>
+      </c>
+      <c r="R27">
+        <v>62220</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="J29" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="O29" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="P29" s="1"/>
+      <c r="Q29" s="1"/>
+      <c r="R29" s="1"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="J29:M29"/>
+    <mergeCell ref="O29:R29"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>